--- a/inst/shiny-examples/BioMonTools/results/calcmet/results_calcmet.xlsx
+++ b/inst/shiny-examples/BioMonTools/results/calcmet/results_calcmet.xlsx
@@ -862,8 +862,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>26</v>
@@ -962,8 +969,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>12</v>
@@ -1062,8 +1076,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>12</v>
@@ -1162,8 +1183,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>10</v>
@@ -1262,8 +1290,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>10</v>
@@ -1362,8 +1397,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>17</v>
@@ -1462,8 +1504,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>16</v>
@@ -1562,8 +1611,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>16</v>
@@ -1662,8 +1718,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>16</v>
@@ -1762,8 +1825,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>12</v>
@@ -1862,8 +1932,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>17</v>
@@ -1962,8 +2039,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>14</v>
@@ -2062,8 +2146,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>13</v>
@@ -2162,8 +2253,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>12</v>
@@ -2262,8 +2360,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>14</v>
@@ -2362,8 +2467,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>17</v>
@@ -2462,8 +2574,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>8</v>
@@ -2562,8 +2681,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>16</v>
@@ -2662,8 +2788,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>6</v>
@@ -2867,8 +3000,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>4</v>
@@ -2922,8 +3062,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2977,8 +3124,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>5</v>
@@ -3032,8 +3186,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>3</v>
@@ -3087,8 +3248,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3142,8 +3310,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>5</v>
@@ -3197,8 +3372,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3252,8 +3434,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>6</v>
@@ -3307,8 +3496,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>6</v>
@@ -3362,8 +3558,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>6</v>
@@ -3417,8 +3620,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>7</v>
@@ -3472,8 +3682,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3527,8 +3744,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>3</v>
@@ -3582,8 +3806,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>9</v>
@@ -3637,8 +3868,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>4</v>
@@ -3692,8 +3930,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3747,8 +3992,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>4</v>
@@ -3802,8 +4054,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>7</v>
@@ -3857,8 +4116,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3987,8 +4253,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4024,8 +4297,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>0</v>
@@ -4061,8 +4341,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4098,8 +4385,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>0</v>
@@ -4135,8 +4429,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4172,8 +4473,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>0</v>
@@ -4209,8 +4517,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4246,8 +4561,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4283,8 +4605,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>0</v>
@@ -4320,8 +4649,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>0</v>
@@ -4357,8 +4693,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>0</v>
@@ -4394,8 +4737,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>0</v>
@@ -4431,8 +4781,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>0</v>
@@ -4468,8 +4825,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>0</v>
@@ -4505,8 +4869,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>0</v>
@@ -4542,8 +4913,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>0</v>
@@ -4579,8 +4957,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>0</v>
@@ -4616,8 +5001,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>0</v>
@@ -4653,8 +5045,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>0</v>
@@ -22680,8 +23079,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>529</v>
@@ -23770,8 +24176,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>552</v>
@@ -24860,8 +25273,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>541</v>
@@ -25950,8 +26370,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>551</v>
@@ -27040,8 +27467,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>529</v>
@@ -28130,8 +28564,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>532</v>
@@ -29220,8 +29661,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>570</v>
@@ -30310,8 +30758,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>527</v>
@@ -31400,8 +31855,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>564</v>
@@ -32490,8 +32952,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>544</v>
@@ -33580,8 +34049,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>548</v>
@@ -34670,8 +35146,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>525</v>
@@ -35760,8 +36243,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>522</v>
@@ -36850,8 +37340,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>531</v>
@@ -37940,8 +38437,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>590</v>
@@ -39030,8 +39534,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>538</v>
@@ -40120,8 +40631,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>548</v>
@@ -41210,8 +41728,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>535</v>
@@ -42300,8 +42825,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>519</v>
@@ -43485,8 +44017,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>529</v>
@@ -43534,8 +44073,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>552</v>
@@ -43583,8 +44129,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>541</v>
@@ -43632,8 +44185,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>551</v>
@@ -43681,8 +44241,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>529</v>
@@ -43730,8 +44297,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>532</v>
@@ -43779,8 +44353,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>570</v>
@@ -43828,8 +44409,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>527</v>
@@ -43877,8 +44465,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>564</v>
@@ -43926,8 +44521,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>544</v>
@@ -43975,8 +44577,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>548</v>
@@ -44024,8 +44633,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>525</v>
@@ -44073,8 +44689,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>522</v>
@@ -44122,8 +44745,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>531</v>
@@ -44171,8 +44801,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>590</v>
@@ -44220,8 +44857,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>538</v>
@@ -44269,8 +44913,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>548</v>
@@ -44318,8 +44969,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>535</v>
@@ -44367,8 +45025,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>519</v>
@@ -45256,8 +45921,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>6.270988431858299</v>
@@ -45728,8 +46400,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>6.313548046277095</v>
@@ -46200,8 +46879,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>6.293419278846481</v>
@@ -46672,8 +47358,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>6.311734809152915</v>
@@ -47144,8 +47837,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>6.270988431858299</v>
@@ -47616,8 +48316,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>6.276643489341645</v>
@@ -48088,8 +48795,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>6.345636360828596</v>
@@ -48560,8 +49274,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>6.267200548541362</v>
@@ -49032,8 +49753,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>6.335054251498059</v>
@@ -49504,8 +50232,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>6.298949246855942</v>
@@ -49976,8 +50711,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>6.306275286948016</v>
@@ -50448,8 +51190,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>6.263398262591624</v>
@@ -50920,8 +51669,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>6.257667587882639</v>
@@ -51392,8 +52148,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>6.274762021241939</v>
@@ -51864,8 +52627,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>6.380122536899765</v>
@@ -52336,8 +53106,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>6.287858560161785</v>
@@ -52808,8 +53585,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>6.306275286948016</v>
@@ -53280,8 +54064,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>6.282266746896006</v>
@@ -53752,8 +54543,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>6.251903883165888</v>
@@ -54489,8 +55287,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>0</v>
@@ -54640,8 +55445,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>0</v>
@@ -54791,8 +55603,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>0</v>
@@ -54942,8 +55761,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>0</v>
@@ -55093,8 +55919,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>0</v>
@@ -55244,8 +56077,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>0</v>
@@ -55395,8 +56235,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>0</v>
@@ -55546,8 +56393,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>0</v>
@@ -55697,8 +56551,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>0</v>
@@ -55848,8 +56709,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>0</v>
@@ -55999,8 +56867,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>0</v>
@@ -56150,8 +57025,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>0</v>
@@ -56301,8 +57183,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>0</v>
@@ -56452,8 +57341,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>0</v>
@@ -56603,8 +57499,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>0</v>
@@ -56754,8 +57657,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>0</v>
@@ -56905,8 +57815,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>0</v>
@@ -57056,8 +57973,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>0</v>
@@ -57207,8 +58131,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>0</v>
@@ -57678,8 +58609,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>0</v>
@@ -57862,8 +58800,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>0</v>
@@ -58046,8 +58991,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>0</v>
@@ -58230,8 +59182,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>0</v>
@@ -58414,8 +59373,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>0</v>
@@ -58598,8 +59564,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>0</v>
@@ -58782,8 +59755,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>0</v>
@@ -58966,8 +59946,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>0</v>
@@ -59150,8 +60137,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>0</v>
@@ -59334,8 +60328,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>0</v>
@@ -59518,8 +60519,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>0</v>
@@ -59702,8 +60710,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>0</v>
@@ -59886,8 +60901,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>0</v>
@@ -60070,8 +61092,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>0</v>
@@ -60254,8 +61283,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>0</v>
@@ -60438,8 +61474,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>0</v>
@@ -60622,8 +61665,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>0</v>
@@ -60806,8 +61856,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>0</v>
@@ -60990,8 +62047,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>0</v>
@@ -61334,8 +62398,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>0</v>
@@ -61422,8 +62493,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>0</v>
@@ -61510,8 +62588,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>0</v>
@@ -61598,8 +62683,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>0</v>
@@ -61686,8 +62778,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>0</v>
@@ -61774,8 +62873,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>0</v>
@@ -61862,8 +62968,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>0</v>
@@ -61950,8 +63063,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>0</v>
@@ -62038,8 +63158,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>0</v>
@@ -62126,8 +63253,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>0</v>
@@ -62214,8 +63348,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>0</v>
@@ -62302,8 +63443,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>0</v>
@@ -62390,8 +63538,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>0</v>
@@ -62478,8 +63633,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>0</v>
@@ -62566,8 +63728,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>0</v>
@@ -62654,8 +63823,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>0</v>
@@ -62742,8 +63918,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>0</v>
@@ -62830,8 +64013,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>0</v>
@@ -62918,8 +64108,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>0</v>
@@ -63076,8 +64273,15 @@
           <t>10069_15134</t>
         </is>
       </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D2">
         <v>0</v>
@@ -63110,8 +64314,15 @@
           <t>10070_15133</t>
         </is>
       </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D3">
         <v>0</v>
@@ -63144,8 +64355,15 @@
           <t>4568_7060</t>
         </is>
       </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D4">
         <v>0</v>
@@ -63178,8 +64396,15 @@
           <t>4582_7074</t>
         </is>
       </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D5">
         <v>0</v>
@@ -63212,8 +64437,15 @@
           <t>4583_7075</t>
         </is>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D6">
         <v>0</v>
@@ -63246,8 +64478,15 @@
           <t>4589_7079</t>
         </is>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D7">
         <v>0</v>
@@ -63280,8 +64519,15 @@
           <t>4590_7080</t>
         </is>
       </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D8">
         <v>0</v>
@@ -63314,8 +64560,15 @@
           <t>5460_8221</t>
         </is>
       </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D9">
         <v>0</v>
@@ -63348,8 +64601,15 @@
           <t>5461_8222</t>
         </is>
       </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D10">
         <v>0</v>
@@ -63382,8 +64642,15 @@
           <t>5465_8226</t>
         </is>
       </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D11">
         <v>0</v>
@@ -63416,8 +64683,15 @@
           <t>5468_8229</t>
         </is>
       </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D12">
         <v>0</v>
@@ -63450,8 +64724,15 @@
           <t>5471_8231</t>
         </is>
       </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D13">
         <v>0</v>
@@ -63484,8 +64765,15 @@
           <t>9263_14266</t>
         </is>
       </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D14">
         <v>0</v>
@@ -63518,8 +64806,15 @@
           <t>9264_14267</t>
         </is>
       </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D15">
         <v>0</v>
@@ -63552,8 +64847,15 @@
           <t>9266_14269</t>
         </is>
       </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D16">
         <v>0</v>
@@ -63586,8 +64888,15 @@
           <t>9267_14270</t>
         </is>
       </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D17">
         <v>0</v>
@@ -63620,8 +64929,15 @@
           <t>9270_14273</t>
         </is>
       </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D18">
         <v>0</v>
@@ -63654,8 +64970,15 @@
           <t>9918_14976</t>
         </is>
       </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D19">
         <v>0</v>
@@ -63688,8 +65011,15 @@
           <t>9952_15005</t>
         </is>
       </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BioMonTools</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bugs</t>
+        </is>
       </c>
       <c r="D20">
         <v>0</v>
